--- a/Ltj/Lab3/Lab3.xlsx
+++ b/Ltj/Lab3/Lab3.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Studia\Semestr5\Ltj\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C7E873-D537-47AE-98D1-74D355EFB894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE87BCC-A360-497D-9AAA-F6C276DCFF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{CD83706E-6C84-4C3B-9356-D9D499F0E843}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{CD83706E-6C84-4C3B-9356-D9D499F0E843}"/>
   </bookViews>
   <sheets>
     <sheet name="(2, 3)" sheetId="1" r:id="rId1"/>
-    <sheet name="4 pierwszy radiometr" sheetId="2" r:id="rId2"/>
-    <sheet name="4 drugi radiometr" sheetId="3" r:id="rId3"/>
+    <sheet name="data" sheetId="5" r:id="rId2"/>
+    <sheet name="4 pierwszy radiometr" sheetId="2" r:id="rId3"/>
+    <sheet name="beczka" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,8 +38,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>Równoważna wartość stałej ekspozycyjnej</t>
   </si>
@@ -49,16 +72,7 @@
     <t>Aktywność</t>
   </si>
   <si>
-    <t>Moc Dawki pochłoniętej</t>
-  </si>
-  <si>
     <t>[GBq]</t>
-  </si>
-  <si>
-    <t>[cGy/h]</t>
-  </si>
-  <si>
-    <t>[cGym^2*h^-1*GBq^-1]</t>
   </si>
   <si>
     <t>[m^2]</t>
@@ -70,13 +84,106 @@
     <t>Odległość od źródła [cm]</t>
   </si>
   <si>
-    <t>Moc dawki pochłoniętej [cGy/h]</t>
+    <t>[microSv/h]</t>
   </si>
   <si>
-    <t>Radiometr 1. &lt;Podaj nazwę&gt;</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Radiometr 2. &lt;Podaj nazwę&gt;</t>
+    <t>Moc Dawki skutecznej</t>
+  </si>
+  <si>
+    <t>[cGy*m^2*h^-1*GBq^-1]</t>
+  </si>
+  <si>
+    <t>Zakres [mikroR/h]</t>
+  </si>
+  <si>
+    <t>Niepewność [mikroSv/h]</t>
+  </si>
+  <si>
+    <t>Moc dawki pochłoniętej [mikroSv/h]</t>
+  </si>
+  <si>
+    <t>Moc dawki pochłoniętej [mikro R/h]</t>
+  </si>
+  <si>
+    <t>Moc [mikroSv/h]</t>
+  </si>
+  <si>
+    <t>Radiometr 3. Model 19</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promien </t>
+  </si>
+  <si>
+    <t>40 cm</t>
+  </si>
+  <si>
+    <t>promien pokrywy</t>
+  </si>
+  <si>
+    <t>10 cm</t>
+  </si>
+  <si>
+    <t>zakres</t>
+  </si>
+  <si>
+    <t>szerokosc zelazka</t>
+  </si>
+  <si>
+    <t>moc [mikro R/h]</t>
+  </si>
+  <si>
+    <t>moc [microSv/h]</t>
+  </si>
+  <si>
+    <t>r [cm]</t>
+  </si>
+  <si>
+    <t>wysokosc kropki 3 cm nad</t>
+  </si>
+  <si>
+    <t>wysokosc beczki</t>
+  </si>
+  <si>
+    <t>h [cm], promien 43 cm</t>
+  </si>
+  <si>
+    <t>dla wysoskosci 88</t>
+  </si>
+  <si>
+    <t>z drugiej strony</t>
+  </si>
+  <si>
+    <t>Radiometr 2. Eko-c stary 642</t>
+  </si>
+  <si>
+    <t>Radiometr 1. Eko-c nowy 719</t>
+  </si>
+  <si>
+    <t>Odległość-719</t>
+  </si>
+  <si>
+    <t>Odległość-642</t>
+  </si>
+  <si>
+    <t>Moc-719</t>
+  </si>
+  <si>
+    <t>Odległość-Model19</t>
+  </si>
+  <si>
+    <t>Moc-Model19</t>
+  </si>
+  <si>
+    <t>Moc od Boga</t>
+  </si>
+  <si>
+    <t>Moc-642</t>
   </si>
 </sst>
 </file>
@@ -100,7 +207,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,8 +256,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -250,11 +369,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -262,23 +392,52 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -436,6 +595,45 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>191.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.2799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.56</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -827,7 +1025,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'4 drugi radiometr'!$A$2:$A$14</c:f>
+              <c:f>'4 pierwszy radiometr'!$A$19:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -875,17 +1073,56 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'4 drugi radiometr'!$B$2:$B$14</c:f>
+              <c:f>'4 pierwszy radiometr'!$B$19:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>138.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.797499999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6850000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.0549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.8500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.04</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1349-46F0-9289-2752CA247388}"/>
+              <c16:uniqueId val="{00000000-13AA-401C-BD11-964A8CC3269E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -897,11 +1134,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="574498432"/>
-        <c:axId val="574491232"/>
+        <c:axId val="1728448399"/>
+        <c:axId val="1728446959"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="574498432"/>
+        <c:axId val="1728448399"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -921,65 +1158,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pl-PL"/>
-                  <a:t>l</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="pl-PL" baseline="0"/>
-                  <a:t> [cm]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1017,12 +1195,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574491232"/>
+        <c:crossAx val="1728446959"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="574491232"/>
+        <c:axId val="1728446959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1042,61 +1220,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pl-PL"/>
-                  <a:t>D [cGy/h]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1134,7 +1257,1378 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574498432"/>
+        <c:crossAx val="1728448399"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4 pierwszy radiometr'!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4 pierwszy radiometr'!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>191.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.2799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-476C-465D-BB37-56EC642FA9F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4 pierwszy radiometr'!$A$19:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4 pierwszy radiometr'!$B$19:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>138.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.797499999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6850000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.0549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.8500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-476C-465D-BB37-56EC642FA9F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4 pierwszy radiometr'!$A$38:$A$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4 pierwszy radiometr'!$H$38:$H$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-476C-465D-BB37-56EC642FA9F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1779225615"/>
+        <c:axId val="1779228495"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1779225615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1779228495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1779228495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1779225615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4 pierwszy radiometr'!$N$36:$N$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>101.12388250319286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.882183908045967</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.404597701149427</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.280970625798215</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.573774337321137</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.220545977011492</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.235986944799205</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.1011494252873568</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5216110952788053</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3202426564495537</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3852955179215121</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.6434435843302841</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0449553001277136</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4 pierwszy radiometr'!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>191.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.2799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8D2D-4509-978B-8B20D9178719}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4 pierwszy radiometr'!$N$36:$N$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>101.12388250319286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.882183908045967</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.404597701149427</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.280970625798215</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.573774337321137</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.220545977011492</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.235986944799205</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.1011494252873568</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5216110952788053</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3202426564495537</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3852955179215121</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.6434435843302841</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0449553001277136</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4 pierwszy radiometr'!$B$19:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>138.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.797499999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6850000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.0549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.8500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8D2D-4509-978B-8B20D9178719}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="137045583"/>
+        <c:axId val="137062383"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4 pierwszy radiometr'!$N$36:$N$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>101.12388250319286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.882183908045967</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.404597701149427</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.280970625798215</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.573774337321137</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.220545977011492</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.235986944799205</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.1011494252873568</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5216110952788053</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3202426564495537</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3852955179215121</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.6434435843302841</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0449553001277136</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4 pierwszy radiometr'!$H$36:$H$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8D2D-4509-978B-8B20D9178719}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4 pierwszy radiometr'!$N$36:$N$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>101.12388250319286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.882183908045967</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.404597701149427</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.280970625798215</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.573774337321137</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.220545977011492</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.235986944799205</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.1011494252873568</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5216110952788053</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3202426564495537</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3852955179215121</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.6434435843302841</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0449553001277136</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4 pierwszy radiometr'!$N$36:$N$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>101.12388250319286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.882183908045967</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.404597701149427</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.280970625798215</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.573774337321137</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.220545977011492</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.235986944799205</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.1011494252873568</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5216110952788053</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3202426564495537</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3852955179215121</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.6434435843302841</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0449553001277136</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8D2D-4509-978B-8B20D9178719}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="137045583"/>
+        <c:axId val="137062383"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="137045583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="137062383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="137062383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="137045583"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1270,6 +2764,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1787,6 +3361,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2340,36 +4946,29 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D489EB17-7F6A-4C0F-AFD1-9A4BF32A5D03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A8C7A33-F933-E168-E2A4-525BDF747F34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2377,7 +4976,79 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{969E9CAE-BA3B-A9FE-0988-C062BA5A2231}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>302558</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>146796</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>257734</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98AA8243-21B0-D95A-945E-56F6007690C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2703,396 +5374,1748 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559809B1-6F60-4567-8900-123B62392A52}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="L21" sqref="L9:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="13" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="12" t="s">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="12">
+        <f>21.4*10^-3</f>
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="26"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="K9">
+        <v>0.3</v>
+      </c>
+      <c r="L9">
+        <f>($E$8*$E$10)/(K9^2*0.087)*10^3</f>
+        <v>101.12388250319286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="12">
+        <f>10^-3*3.7*10^10/10^9</f>
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="K10">
+        <v>0.4</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ref="L10:L21" si="0">($E$8*$E$10)/(K10^2*0.087)*10^3</f>
+        <v>56.882183908045967</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="11">
+        <f>(E8*E10)/(E9*E9*0.087)*10^3</f>
+        <v>9.1011494252873568</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="K11">
+        <v>0.5</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>36.404597701149427</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="K12">
+        <v>0.6</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>25.280970625798215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>0.7</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>18.573774337321137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13.28</v>
+      </c>
+      <c r="K14">
+        <v>0.8</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>14.220545977011492</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>0.9</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>11.235986944799205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K16">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8">
-        <v>1</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8">
-        <f>(E1*E3)/(E2*E2)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>9.1011494252873568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>9.1011494252873568</v>
+      </c>
+      <c r="B17" s="10">
+        <v>13.28</v>
+      </c>
+      <c r="C17">
+        <f>((B17-A17)/A17)*100</f>
+        <v>45.915635261429635</v>
+      </c>
+      <c r="K17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>7.5216110952788053</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>9.1011494252873568</v>
+      </c>
+      <c r="B18" s="10">
+        <v>10.72</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:C19" si="1">((B18-A18)/A18)*100</f>
+        <v>17.787320030310685</v>
+      </c>
+      <c r="K18">
+        <v>1.2</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>6.3202426564495537</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>9.1011494252873568</v>
+      </c>
+      <c r="B19" s="9">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>-1.1113917655973784</v>
+      </c>
+      <c r="K19">
+        <v>1.3</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>5.3852955179215121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>1.4</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>4.6434435843302841</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>1.5</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>4.0449553001277136</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G1:I4"/>
+    <mergeCell ref="G8:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F39A6F-C56B-460A-9E49-0DBD91CADE54}">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="D15:G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <f>21.4*10^-3</f>
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <f>10^-3*3.7*10^10/10^9</f>
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D2" s="9">
+        <v>30</v>
+      </c>
+      <c r="E2" s="9">
+        <v>191.9</v>
+      </c>
+      <c r="F2" s="9">
+        <v>30</v>
+      </c>
+      <c r="G2" s="9">
+        <v>138.19999999999999</v>
+      </c>
+      <c r="H2" s="9">
+        <v>50</v>
+      </c>
+      <c r="I2" s="9">
+        <v>31</v>
+      </c>
+      <c r="J2" s="22">
+        <v>101.12388250319286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D3" s="10">
+        <v>40</v>
+      </c>
+      <c r="E3" s="10">
+        <v>89.88</v>
+      </c>
+      <c r="F3" s="10">
+        <v>40</v>
+      </c>
+      <c r="G3" s="10">
+        <v>73.11</v>
+      </c>
+      <c r="H3" s="10">
+        <v>60</v>
+      </c>
+      <c r="I3" s="9">
+        <v>22</v>
+      </c>
+      <c r="J3" s="8">
+        <v>56.882183908045967</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D4" s="9">
+        <v>50</v>
+      </c>
+      <c r="E4" s="9">
+        <f>(62.88)</f>
+        <v>62.88</v>
+      </c>
+      <c r="F4" s="9">
+        <v>50</v>
+      </c>
+      <c r="G4" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="H4" s="9">
+        <v>70</v>
+      </c>
+      <c r="I4" s="9">
+        <v>17</v>
+      </c>
+      <c r="J4" s="22">
+        <v>36.404597701149427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D5" s="10">
+        <v>60</v>
+      </c>
+      <c r="E5" s="10">
+        <v>44</v>
+      </c>
+      <c r="F5" s="10">
+        <v>60</v>
+      </c>
+      <c r="G5" s="10">
+        <v>30.67</v>
+      </c>
+      <c r="H5" s="10">
+        <v>80</v>
+      </c>
+      <c r="I5" s="9">
+        <v>13</v>
+      </c>
+      <c r="J5" s="8">
+        <v>25.280970625798215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="9">
+        <v>70</v>
+      </c>
+      <c r="E6" s="9">
+        <v>30.82</v>
+      </c>
+      <c r="F6" s="9">
+        <v>70</v>
+      </c>
+      <c r="G6" s="9">
+        <v>23.31</v>
+      </c>
+      <c r="H6" s="9">
+        <v>90</v>
+      </c>
+      <c r="I6" s="9">
+        <v>10</v>
+      </c>
+      <c r="J6" s="22">
+        <v>18.573774337321137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="10">
+        <v>80</v>
+      </c>
+      <c r="E7" s="10">
+        <v>22.84</v>
+      </c>
+      <c r="F7" s="10">
+        <v>80</v>
+      </c>
+      <c r="G7" s="10">
+        <f>(17.78+18.43+17.81+17.17)/4</f>
+        <v>17.797499999999999</v>
+      </c>
+      <c r="H7" s="10">
+        <v>100</v>
+      </c>
+      <c r="I7" s="9">
+        <v>9</v>
+      </c>
+      <c r="J7" s="8">
+        <v>14.220545977011492</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D8" s="9">
+        <v>90</v>
+      </c>
+      <c r="E8" s="9">
+        <v>18.16</v>
+      </c>
+      <c r="F8" s="9">
+        <v>90</v>
+      </c>
+      <c r="G8" s="9">
+        <f>(15+14.53+14.54)/3</f>
+        <v>14.69</v>
+      </c>
+      <c r="H8" s="9">
+        <v>110</v>
+      </c>
+      <c r="I8" s="9">
+        <v>7</v>
+      </c>
+      <c r="J8" s="22">
+        <v>11.235986944799205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="10">
+        <v>100</v>
+      </c>
+      <c r="E9" s="10">
+        <v>13.28</v>
+      </c>
+      <c r="F9" s="10">
+        <v>100</v>
+      </c>
+      <c r="G9" s="10">
+        <v>10.72</v>
+      </c>
+      <c r="H9" s="10">
+        <v>120</v>
+      </c>
+      <c r="I9" s="9">
+        <v>6</v>
+      </c>
+      <c r="J9" s="8">
+        <v>9.1011494252873568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D10" s="9">
+        <v>110</v>
+      </c>
+      <c r="E10" s="9">
+        <v>11.78</v>
+      </c>
+      <c r="F10" s="9">
+        <v>110</v>
+      </c>
+      <c r="G10" s="9">
+        <f>(9.56+9.81)/2</f>
+        <v>9.6850000000000005</v>
+      </c>
+      <c r="H10" s="9">
+        <v>130</v>
+      </c>
+      <c r="I10" s="9">
+        <v>5</v>
+      </c>
+      <c r="J10" s="22">
+        <v>7.5216110952788053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D11" s="10">
+        <v>120</v>
+      </c>
+      <c r="E11" s="10">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="F11" s="10">
+        <v>120</v>
+      </c>
+      <c r="G11" s="10">
+        <v>8.51</v>
+      </c>
+      <c r="H11" s="10">
+        <v>140</v>
+      </c>
+      <c r="I11" s="9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J11" s="8">
+        <v>6.3202426564495537</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="9">
+        <v>130</v>
+      </c>
+      <c r="E12" s="9">
+        <f>(8.12+8.28+8.44)/3</f>
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="F12" s="9">
+        <v>130</v>
+      </c>
+      <c r="G12" s="9">
+        <f>(7.24+6.87)/2</f>
+        <v>7.0549999999999997</v>
+      </c>
+      <c r="H12" s="9">
+        <v>150</v>
+      </c>
+      <c r="I12" s="9">
+        <v>4</v>
+      </c>
+      <c r="J12" s="22">
+        <v>5.3852955179215121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="10">
+        <v>140</v>
+      </c>
+      <c r="E13" s="10">
+        <v>7.14</v>
+      </c>
+      <c r="F13" s="10">
+        <v>140</v>
+      </c>
+      <c r="G13" s="10">
+        <f>(5.82+6+5.73)/3</f>
+        <v>5.8500000000000005</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="8">
+        <v>4.6434435843302841</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="9">
+        <v>150</v>
+      </c>
+      <c r="E14" s="9">
+        <v>6.56</v>
+      </c>
+      <c r="F14" s="9">
+        <v>150</v>
+      </c>
+      <c r="G14" s="9">
+        <v>5.04</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="22">
+        <v>4.0449553001277136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="9">
+        <v>30</v>
+      </c>
+      <c r="E15" s="9">
+        <v>138.19999999999999</v>
+      </c>
+      <c r="F15" s="9">
+        <v>191.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="10">
+        <v>40</v>
+      </c>
+      <c r="E16" s="10">
+        <v>73.11</v>
+      </c>
+      <c r="F16" s="10">
+        <v>89.88</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D17" s="9">
+        <v>50</v>
+      </c>
+      <c r="E17" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="F17" s="9">
+        <f>(62.88)</f>
+        <v>62.88</v>
+      </c>
+      <c r="G17" s="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D18" s="10">
+        <v>60</v>
+      </c>
+      <c r="E18" s="10">
+        <v>30.67</v>
+      </c>
+      <c r="F18" s="10">
+        <v>44</v>
+      </c>
+      <c r="G18" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D19" s="9">
+        <v>70</v>
+      </c>
+      <c r="E19" s="9">
+        <v>23.31</v>
+      </c>
+      <c r="F19" s="9">
+        <v>30.82</v>
+      </c>
+      <c r="G19" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D20" s="10">
+        <v>80</v>
+      </c>
+      <c r="E20" s="10">
+        <f>(17.78+18.43+17.81+17.17)/4</f>
+        <v>17.797499999999999</v>
+      </c>
+      <c r="F20" s="10">
+        <v>22.84</v>
+      </c>
+      <c r="G20" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D21" s="9">
+        <v>90</v>
+      </c>
+      <c r="E21" s="9">
+        <f>(15+14.53+14.54)/3</f>
+        <v>14.69</v>
+      </c>
+      <c r="F21" s="9">
+        <v>18.16</v>
+      </c>
+      <c r="G21" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D22" s="10">
+        <v>100</v>
+      </c>
+      <c r="E22" s="10">
+        <v>10.72</v>
+      </c>
+      <c r="F22" s="10">
+        <v>13.28</v>
+      </c>
+      <c r="G22" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="9">
+        <v>110</v>
+      </c>
+      <c r="E23" s="9">
+        <f>(9.56+9.81)/2</f>
+        <v>9.6850000000000005</v>
+      </c>
+      <c r="F23" s="9">
+        <v>11.78</v>
+      </c>
+      <c r="G23" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="10">
+        <v>120</v>
+      </c>
+      <c r="E24" s="10">
+        <v>8.51</v>
+      </c>
+      <c r="F24" s="10">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="G24" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="9">
+        <v>130</v>
+      </c>
+      <c r="E25" s="9">
+        <f>(7.24+6.87)/2</f>
+        <v>7.0549999999999997</v>
+      </c>
+      <c r="F25" s="9">
+        <f>(8.12+8.28+8.44)/3</f>
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="G25" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D26" s="10">
+        <v>140</v>
+      </c>
+      <c r="E26" s="10">
+        <f>(5.82+6+5.73)/3</f>
+        <v>5.8500000000000005</v>
+      </c>
+      <c r="F26" s="10">
+        <v>7.14</v>
+      </c>
+      <c r="G26" s="9">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D27" s="9">
+        <v>150</v>
+      </c>
+      <c r="E27" s="9">
+        <v>5.04</v>
+      </c>
+      <c r="F27" s="9">
+        <v>6.56</v>
+      </c>
+      <c r="G27" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="23"/>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9071D53-6AB6-45E8-8DDA-279E5145671E}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>30</v>
+      </c>
+      <c r="B2" s="9">
+        <v>191.9</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>40</v>
+      </c>
+      <c r="B3" s="10">
+        <v>89.88</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>50</v>
+      </c>
+      <c r="B4" s="9">
+        <f>(62.88)</f>
+        <v>62.88</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>60</v>
+      </c>
+      <c r="B5" s="10">
+        <v>44</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>70</v>
+      </c>
+      <c r="B6" s="9">
+        <v>30.82</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>80</v>
+      </c>
+      <c r="B7" s="10">
+        <v>22.84</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>90</v>
+      </c>
+      <c r="B8" s="9">
+        <v>18.16</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>100</v>
+      </c>
+      <c r="B9" s="10">
+        <v>13.28</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>110</v>
+      </c>
+      <c r="B10" s="9">
+        <v>11.78</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>120</v>
+      </c>
+      <c r="B11" s="10">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>130</v>
+      </c>
+      <c r="B12" s="9">
+        <f>(8.12+8.28+8.44)/3</f>
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>140</v>
+      </c>
+      <c r="B13" s="10">
+        <v>7.14</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>150</v>
+      </c>
+      <c r="B14" s="9">
+        <v>6.56</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>30</v>
+      </c>
+      <c r="B19" s="9">
+        <v>138.19999999999999</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>40</v>
+      </c>
+      <c r="B20" s="10">
+        <v>73.11</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>50</v>
+      </c>
+      <c r="B21" s="9">
+        <v>45.5</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>60</v>
+      </c>
+      <c r="B22" s="10">
+        <v>30.67</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>70</v>
+      </c>
+      <c r="B23" s="9">
+        <v>23.31</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>80</v>
+      </c>
+      <c r="B24" s="10">
+        <f>(17.78+18.43+17.81+17.17)/4</f>
+        <v>17.797499999999999</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>90</v>
+      </c>
+      <c r="B25" s="9">
+        <f>(15+14.53+14.54)/3</f>
+        <v>14.69</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>100</v>
+      </c>
+      <c r="B26" s="10">
+        <v>10.72</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>110</v>
+      </c>
+      <c r="B27" s="9">
+        <f>(9.56+9.81)/2</f>
+        <v>9.6850000000000005</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>120</v>
+      </c>
+      <c r="B28" s="10">
+        <v>8.51</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>130</v>
+      </c>
+      <c r="B29" s="9">
+        <f>(7.24+6.87)/2</f>
+        <v>7.0549999999999997</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>140</v>
+      </c>
+      <c r="B30" s="10">
+        <f>(5.82+6+5.73)/3</f>
+        <v>5.8500000000000005</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>150</v>
+      </c>
+      <c r="B31" s="9">
+        <v>5.04</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>30</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="20">
+        <v>5000</v>
+      </c>
+      <c r="G36" s="19" cm="1">
+        <f t="array" ref="G36:G48">(F36:F48)/25/100</f>
+        <v>2</v>
+      </c>
+      <c r="H36" s="9"/>
+      <c r="N36">
+        <v>101.12388250319286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>40</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="21">
+        <v>5000</v>
+      </c>
+      <c r="G37" s="10">
+        <v>2</v>
+      </c>
+      <c r="H37" s="9"/>
+      <c r="N37">
+        <v>56.882183908045967</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>50</v>
+      </c>
+      <c r="B38" s="9">
+        <v>3100</v>
+      </c>
+      <c r="C38" s="27"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="20">
+        <v>5000</v>
+      </c>
+      <c r="G38" s="19">
+        <v>2</v>
+      </c>
+      <c r="H38" s="9">
+        <f t="shared" ref="H38:H48" si="0">B38/100</f>
+        <v>31</v>
+      </c>
+      <c r="N38">
+        <v>36.404597701149427</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <v>60</v>
+      </c>
+      <c r="B39" s="10">
+        <v>2200</v>
+      </c>
+      <c r="C39" s="27"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="21">
+        <v>5000</v>
+      </c>
+      <c r="G39" s="10">
+        <v>2</v>
+      </c>
+      <c r="H39" s="9">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="N39">
+        <v>25.280970625798215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>70</v>
+      </c>
+      <c r="B40" s="9">
+        <v>1700</v>
+      </c>
+      <c r="C40" s="27"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="20">
+        <v>5000</v>
+      </c>
+      <c r="G40" s="19">
+        <v>2</v>
+      </c>
+      <c r="H40" s="9">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="N40">
+        <v>18.573774337321137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>80</v>
+      </c>
+      <c r="B41" s="10">
+        <v>1300</v>
+      </c>
+      <c r="C41" s="27"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="21">
+        <v>5000</v>
+      </c>
+      <c r="G41" s="10">
+        <v>2</v>
+      </c>
+      <c r="H41" s="9">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="N41">
+        <v>14.220545977011492</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>90</v>
+      </c>
+      <c r="B42" s="9">
+        <v>1000</v>
+      </c>
+      <c r="C42" s="27"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="20">
+        <v>5000</v>
+      </c>
+      <c r="G42" s="19">
+        <v>2</v>
+      </c>
+      <c r="H42" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N42">
+        <v>11.235986944799205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>100</v>
+      </c>
+      <c r="B43" s="10">
+        <v>900</v>
+      </c>
+      <c r="C43" s="27"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="21">
+        <v>5000</v>
+      </c>
+      <c r="G43" s="10">
+        <v>2</v>
+      </c>
+      <c r="H43" s="9">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
-        <v>30</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
-        <v>40</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
-        <v>50</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>60</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
-        <v>70</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
-        <v>80</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
-        <v>90</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <v>100</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="N43">
+        <v>9.1011494252873568</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
         <v>110</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="B44" s="9">
+        <v>700</v>
+      </c>
+      <c r="C44" s="27"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="20">
+        <v>5000</v>
+      </c>
+      <c r="G44" s="19">
+        <v>2</v>
+      </c>
+      <c r="H44" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N44">
+        <v>7.5216110952788053</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
         <v>120</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="B45" s="10">
+        <v>600</v>
+      </c>
+      <c r="C45" s="27"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="21">
+        <v>5000</v>
+      </c>
+      <c r="G45" s="10">
+        <v>2</v>
+      </c>
+      <c r="H45" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N45">
+        <v>6.3202426564495537</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
         <v>130</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="B46" s="9">
+        <v>500</v>
+      </c>
+      <c r="C46" s="27"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="20">
+        <v>5000</v>
+      </c>
+      <c r="G46" s="19">
+        <v>2</v>
+      </c>
+      <c r="H46" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N46">
+        <v>5.3852955179215121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
         <v>140</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="B47" s="10">
+        <v>460</v>
+      </c>
+      <c r="C47" s="27"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="21">
+        <v>500</v>
+      </c>
+      <c r="G47" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="H47" s="9">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N47">
+        <v>4.6434435843302841</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
         <v>150</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="B48" s="9">
+        <v>400</v>
+      </c>
+      <c r="C48" s="27"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="20">
+        <v>500</v>
+      </c>
+      <c r="G48" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="H48" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N48">
+        <v>4.0449553001277136</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="C1:E14"/>
+    <mergeCell ref="C18:E31"/>
+    <mergeCell ref="C35:E48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7302447E-0CD2-4C7C-9064-CF9095D6EF10}">
-  <dimension ref="A1:E14"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7E8C0D-DFF4-40BE-AF1B-0478ED44CF4E}">
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>145</v>
+      </c>
+      <c r="C2">
+        <v>250</v>
+      </c>
+      <c r="D2">
+        <f>B2/100</f>
+        <v>1.45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>140</v>
+      </c>
+      <c r="C3">
+        <v>250</v>
+      </c>
+      <c r="D3">
+        <f>B3/100</f>
+        <v>1.4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>105</v>
+      </c>
+      <c r="C4">
+        <v>250</v>
+      </c>
+      <c r="D4">
+        <f>B4/100</f>
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>65</v>
+      </c>
+      <c r="C5">
+        <v>250</v>
+      </c>
+      <c r="D5">
+        <f>B5/100</f>
+        <v>0.65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>170</v>
+      </c>
+      <c r="C10">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>230</v>
+      </c>
+      <c r="C11">
+        <v>250</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="F11">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>250</v>
+      </c>
+      <c r="C12">
+        <v>500</v>
+      </c>
+      <c r="E12">
+        <v>40</v>
+      </c>
+      <c r="F12">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>250</v>
+      </c>
+      <c r="C13">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>220</v>
+      </c>
+      <c r="C14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>10</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
-        <v>30</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
-        <v>40</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
-        <v>50</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>60</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
-        <v>70</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
-        <v>80</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
-        <v>90</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="B15">
+        <v>170</v>
+      </c>
+      <c r="C15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
         <v>100</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
-        <v>110</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
-        <v>120</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
-        <v>130</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
-        <v>140</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
-        <v>150</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="C16">
+        <v>500</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:E14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>